--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-671608.7211747726</v>
+        <v>-657812.9677353048</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306644</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9498039.256552167</v>
+        <v>9552877.806656139</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.896053338104</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -668,16 +668,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>361.8662863501078</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>151.0193598023108</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>174.543305109934</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -899,19 +899,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>342.8793557357247</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7.377912357044183</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>85.78580588144442</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1105,13 +1105,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>161.6379250432762</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>117.3232036332259</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,16 +1142,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>268.6588154817973</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>55.76919946231764</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>83.05466467793967</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,10 +1382,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>393.1957368861607</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>156.0275385056713</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.21878984361703</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752575</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170561</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>163.6395778340026</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791315919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>126.4702673604306</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>108.3408915168849</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934476</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3676,10 +3676,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277815</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934495</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>802.7623862436388</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>768.6603174674663</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>736.7909366823149</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>707.0565958810141</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>341.5350945172688</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>341.5350945172688</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>52.40493996048505</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048505</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.659627413403</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424406</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1256.083015301599</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1256.083015301599</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1256.083015301599</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301599</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312601</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271196</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024253</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.59512420809</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2316.527897081128</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2057.305594398145</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2057.305594398145</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1652.450139809179</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1233.307676388489</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1229.061956728547</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517778</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.1202237884201</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349734</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>262.9095202619271</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>179.5256818780887</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.14059214427257</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048505</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094265</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.026938087155</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098158</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218279</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134401</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.3663652523202</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315409</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.6507226398521</v>
+        <v>937.5428506659819</v>
       </c>
       <c r="C4" t="n">
-        <v>210.6507226398521</v>
+        <v>764.9811391492068</v>
       </c>
       <c r="D4" t="n">
-        <v>210.6507226398521</v>
+        <v>599.1031463507295</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>599.1031463507295</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>446.5583384696075</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>280.9670634954352</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0648891858097</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048505</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>138.9846251251749</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>413.7430796963105</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>831.9529614642715</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1242.619276806153</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1684.878079963797</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2104.547329189579</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2452.054223159921</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024253</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2598.829176729625</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2439.587808027621</v>
       </c>
       <c r="T4" t="n">
-        <v>1520.877061282504</v>
+        <v>2439.587808027621</v>
       </c>
       <c r="U4" t="n">
-        <v>1242.444060535609</v>
+        <v>2161.154807280726</v>
       </c>
       <c r="V4" t="n">
-        <v>955.4885524060398</v>
+        <v>1874.199299151157</v>
       </c>
       <c r="W4" t="n">
-        <v>683.4621479923314</v>
+        <v>1602.172894737448</v>
       </c>
       <c r="X4" t="n">
-        <v>438.0703933257439</v>
+        <v>1356.781140070861</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.6507226398521</v>
+        <v>1129.361469384969</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.308997322836</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C5" t="n">
-        <v>1613.206928546663</v>
+        <v>1263.938003889275</v>
       </c>
       <c r="D5" t="n">
-        <v>1581.337547761512</v>
+        <v>828.0282190637199</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.75587349878</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1689.73099335613</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1689.73099335613</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1689.73099335613</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1689.73099335613</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1688.915942807568</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1673.813883427282</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.56816376734</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.2559470001092</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>209.2559470001092</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>209.2559470001092</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>209.2559470001092</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>209.2559470001092</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2232.38645698253</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.2559470001092</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>247.3026722635964</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C8" t="n">
-        <v>128.7943857653884</v>
+        <v>675.9244229354288</v>
       </c>
       <c r="D8" t="n">
-        <v>96.92500498023699</v>
+        <v>644.0550421502774</v>
       </c>
       <c r="E8" t="n">
-        <v>67.19066417893623</v>
+        <v>614.3207013489766</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36363862854802</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36363862854802</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36363862854802</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36363862854802</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.6183260814659</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1015.243354109748</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>1015.243354109748</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1015.243354109748</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>1015.243354109748</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1015.243354109748</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1462.402838646062</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1999.027866674344</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427401</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2084.530057611238</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1864.462830484276</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1864.462830484276</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1501.845880418103</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1096.990425829136</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>677.8479624084467</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y8" t="n">
-        <v>673.6022427485042</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.5353836198408</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0789224564831</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030364</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.8682189299901</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461517</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.09929081233554</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36363862854802</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.42731178900561</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>393.9856367552179</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>930.6106647834995</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1052.805593984736</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1052.805593984736</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1052.805593984736</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.805593984736</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984736</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886342</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.1924996815033</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203832</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.8392846996039</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.5983376475853</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>183.2658129381735</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>183.2658129381735</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>183.2658129381735</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>183.2658129381735</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>183.2658129381735</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36363862854802</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36363862854802</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>129.9433237932379</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>129.9433237932379</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>548.1532055611989</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1007.637072742112</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1449.895875899757</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1869.565125125538</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2168.181931427401</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427401</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2146.764110132773</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1987.522741430769</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1741.643295009224</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1463.21029426233</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1176.25478613276</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>904.2283817190516</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>658.8366270524641</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.4169563665724</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1806.649418489</v>
+        <v>1625.53094399804</v>
       </c>
       <c r="C11" t="n">
-        <v>1368.506945672423</v>
+        <v>1625.53094399804</v>
       </c>
       <c r="D11" t="n">
-        <v>932.5971608468674</v>
+        <v>1625.53094399804</v>
       </c>
       <c r="E11" t="n">
-        <v>498.8224160051626</v>
+        <v>1191.756199156335</v>
       </c>
       <c r="F11" t="n">
-        <v>70.95498641437032</v>
+        <v>763.8887695655428</v>
       </c>
       <c r="G11" t="n">
-        <v>70.95498641437032</v>
+        <v>362.4909381888068</v>
       </c>
       <c r="H11" t="n">
-        <v>70.95498641437032</v>
+        <v>73.36078363202299</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151033</v>
+        <v>72.94399425916299</v>
       </c>
       <c r="J11" t="n">
-        <v>70.53819704151033</v>
+        <v>508.1986817120808</v>
       </c>
       <c r="K11" t="n">
-        <v>70.53819704151033</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>943.4483854302006</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="M11" t="n">
-        <v>1816.358573818891</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="N11" t="n">
-        <v>2689.268762207581</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="O11" t="n">
-        <v>3526.909852075516</v>
+        <v>2103.236987413102</v>
       </c>
       <c r="P11" t="n">
-        <v>3526.909852075516</v>
+        <v>2931.546862246498</v>
       </c>
       <c r="Q11" t="n">
-        <v>3526.909852075516</v>
+        <v>3478.045648205093</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075516</v>
+        <v>3647.19971295815</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259353</v>
+        <v>3563.547839141987</v>
       </c>
       <c r="T11" t="n">
-        <v>3443.257978259353</v>
+        <v>3563.547839141987</v>
       </c>
       <c r="U11" t="n">
-        <v>3443.257978259353</v>
+        <v>3304.325536459003</v>
       </c>
       <c r="V11" t="n">
-        <v>3443.257978259353</v>
+        <v>2941.70858639283</v>
       </c>
       <c r="W11" t="n">
-        <v>3038.402523670386</v>
+        <v>2536.853131803863</v>
       </c>
       <c r="X11" t="n">
-        <v>2641.235112674254</v>
+        <v>2117.710668383174</v>
       </c>
       <c r="Y11" t="n">
-        <v>2232.948988973907</v>
+        <v>1709.424544682827</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328032</v>
+        <v>579.1157392504558</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694454</v>
+        <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159987</v>
+        <v>377.5689892336513</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429524</v>
+        <v>283.448574560605</v>
       </c>
       <c r="F12" t="n">
-        <v>197.658938959114</v>
+        <v>200.0647361767666</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252979</v>
+        <v>114.6796464429505</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151033</v>
+        <v>72.94399425916299</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196793</v>
+        <v>99.00766741962059</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681803</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>1326.247921342975</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>1326.247921342975</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1326.247921342975</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.60518042598</v>
+        <v>1619.010977643632</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1736.183755737972</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1542.549674516957</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1366.213127516925</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361272</v>
+        <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944656</v>
+        <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333455</v>
+        <v>826.9054195509982</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125663</v>
+        <v>700.419640330219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>939.2734031611262</v>
+        <v>816.6528761476093</v>
       </c>
       <c r="C13" t="n">
-        <v>766.7116916443512</v>
+        <v>644.0911646308342</v>
       </c>
       <c r="D13" t="n">
-        <v>600.8336988458739</v>
+        <v>478.2131718323569</v>
       </c>
       <c r="E13" t="n">
-        <v>431.0756950966112</v>
+        <v>478.2131718323569</v>
       </c>
       <c r="F13" t="n">
-        <v>254.3686410583674</v>
+        <v>301.5061177941132</v>
       </c>
       <c r="G13" t="n">
-        <v>254.3686410583674</v>
+        <v>301.5061177941132</v>
       </c>
       <c r="H13" t="n">
-        <v>159.198146266835</v>
+        <v>161.6039434844877</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151033</v>
+        <v>72.94399425916299</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822062002</v>
+        <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773358</v>
+        <v>434.2821339949884</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452968</v>
+        <v>852.4920157629494</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1311.975882943862</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109636</v>
+        <v>2173.903935327288</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079978</v>
+        <v>2521.41082929763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2687.19780694431</v>
+        <v>2530.362235459959</v>
       </c>
       <c r="T13" t="n">
-        <v>2441.318360522765</v>
+        <v>2284.482789038414</v>
       </c>
       <c r="U13" t="n">
-        <v>2162.885359775871</v>
+        <v>2006.04978829152</v>
       </c>
       <c r="V13" t="n">
-        <v>1875.929851646301</v>
+        <v>1719.09428016195</v>
       </c>
       <c r="W13" t="n">
-        <v>1603.903447232593</v>
+        <v>1447.067875748242</v>
       </c>
       <c r="X13" t="n">
-        <v>1358.511692566005</v>
+        <v>1201.676121081654</v>
       </c>
       <c r="Y13" t="n">
-        <v>1131.092021880113</v>
+        <v>974.2564503957624</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,43 +5285,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883928</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716176</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731403</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238775</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8499155856338</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050032</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303137</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173568</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759859</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.992967093272</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.57329640738</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785924</v>
@@ -5595,25 +5595,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831959</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5738,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1036.216302815309</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C22" t="n">
-        <v>863.6545912985334</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D22" t="n">
-        <v>754.219347342084</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928213</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545776</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.872751300484</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1700.846346886775</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.454592220188</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y22" t="n">
-        <v>1228.034921534296</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -6063,10 +6063,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436392</v>
@@ -6227,49 +6227,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>306.1208027766281</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.168637987179</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423626</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993932</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.389162827329</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6546,22 +6546,22 @@
         <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P30" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>632.5563420751427</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258799</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876361</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134637</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2523.346856428596</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2523.346856428596</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3503.526522998903</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4331.836397832299</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936671</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080659</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716793</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463116</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850155</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882661</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7157,67 +7157,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428596</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="O39" t="n">
-        <v>823.9105205810888</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="P39" t="n">
-        <v>1643.633687060287</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R39" t="n">
         <v>1760.806465154627</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463113</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385015</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7397,46 +7397,46 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835851</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>540.31673232073</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>1615.376698573589</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2772.42453378414</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>3898.155517220587</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>4878.335183790893</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4878.335183790893</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q42" t="n">
         <v>1643.633687060287</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080654</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716789</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463112</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,16 +7600,16 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230403</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7631,19 +7631,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,25 +7652,25 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1397.615872992148</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>1397.615872992148</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387605</v>
@@ -7685,13 +7685,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.922221872865</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.922221872865</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.922221872865</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.922221872865</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.922221872865</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.922221872865</v>
+        <v>1267.911868281686</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850159</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882665</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7810,28 +7810,28 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
@@ -7840,16 +7840,16 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060633</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850435</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060633</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060632</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509819379</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>384.410488760259</v>
+        <v>414.8144599412941</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>542.0454828568502</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>451.6762470063786</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568502</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568502</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>123.42922141539</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568502</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,7 +8611,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>301.6331376786493</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188791</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188791</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.727463018879</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>846.1021109777125</v>
+        <v>768.3717310533771</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>911.7999282395374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>295.720258889553</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,16 +9000,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,10 +9179,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,10 +9243,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>288.735183296506</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463116</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -9957,7 +9957,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10589,13 +10589,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>81.9345526149732</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>92.06596429261231</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>379.5169886652536</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>30.75170697498379</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.0908366609701</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>379.5169886652536</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>338.981910102119</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>21.7553019003217</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.87289402612589</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>44.2843627229122</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.943445404606337e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.43016517136661</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>55.87832135360758</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.227729277772596e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>799663.4206093813</v>
+        <v>818596.107059119</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>799663.4206093813</v>
+        <v>819617.8239016491</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>809323.9329012512</v>
+        <v>819617.8239016491</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648624.2793433683</v>
+        <v>663525.580401229</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845111.6032299735</v>
+        <v>845111.6032299737</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845111.6032299735</v>
+        <v>845111.6032299733</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854418.4433095071</v>
+        <v>845111.6032299735</v>
       </c>
     </row>
     <row r="14">
@@ -26320,10 +26320,10 @@
         <v>187651.561961643</v>
       </c>
       <c r="E2" t="n">
-        <v>141527.3637618484</v>
+        <v>144778.771275418</v>
       </c>
       <c r="F2" t="n">
-        <v>184400.1544480734</v>
+        <v>184400.1544480733</v>
       </c>
       <c r="G2" t="n">
         <v>184400.1544480733</v>
@@ -26344,16 +26344,16 @@
         <v>184400.1544480733</v>
       </c>
       <c r="M2" t="n">
+        <v>184400.1544480734</v>
+      </c>
+      <c r="N2" t="n">
+        <v>187651.5619616429</v>
+      </c>
+      <c r="O2" t="n">
         <v>187651.561961643</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>187651.561961643</v>
-      </c>
-      <c r="O2" t="n">
-        <v>187651.5619616431</v>
-      </c>
-      <c r="P2" t="n">
-        <v>187651.5619616429</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797204</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948091</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835337</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.5662728183</v>
+        <v>72938.04361534389</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238701</v>
+        <v>105000.4827540558</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877644</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347374463</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.3704261024</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.2062551605</v>
+        <v>60876.72976950124</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.64797769046</v>
+        <v>88373.14763716068</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>184344.389573567</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>200937.35370378</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>83133.68547819469</v>
+        <v>85043.57401430387</v>
       </c>
       <c r="F4" t="n">
         <v>108317.3178284629</v>
@@ -26448,7 +26448,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="M4" t="n">
-        <v>120278.8232507374</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
         <v>120278.8232507374</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996864</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.96535769649</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154785</v>
+        <v>55437.43563696387</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
@@ -26491,25 +26491,25 @@
         <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-232189.7928678583</v>
+        <v>-289674.440661613</v>
       </c>
       <c r="C6" t="n">
-        <v>-89998.49220814835</v>
+        <v>-73100.29180239049</v>
       </c>
       <c r="D6" t="n">
-        <v>-116446.3232181869</v>
+        <v>-69076.94487344239</v>
       </c>
       <c r="E6" t="n">
-        <v>-96636.91774071241</v>
+        <v>-68946.51621038096</v>
       </c>
       <c r="F6" t="n">
-        <v>-115252.4279100522</v>
+        <v>-106659.1090796206</v>
       </c>
       <c r="G6" t="n">
-        <v>-1635.4019861821</v>
+        <v>-1658.626325564726</v>
       </c>
       <c r="H6" t="n">
-        <v>-1635.401986182085</v>
+        <v>-1658.626325564755</v>
       </c>
       <c r="I6" t="n">
-        <v>-1635.401986182085</v>
+        <v>-1658.626325564726</v>
       </c>
       <c r="J6" t="n">
-        <v>-112649.8673311723</v>
+        <v>-173051.6027133292</v>
       </c>
       <c r="K6" t="n">
-        <v>-1635.401986182085</v>
+        <v>-4863.747672939197</v>
       </c>
       <c r="L6" t="n">
-        <v>-31436.77241228451</v>
+        <v>-1658.62632556474</v>
       </c>
       <c r="M6" t="n">
-        <v>-91159.0822703446</v>
+        <v>-62535.35609506595</v>
       </c>
       <c r="N6" t="n">
-        <v>-105264.5239928746</v>
+        <v>-96516.02365234491</v>
       </c>
       <c r="O6" t="n">
         <v>-8142.876015184069</v>
       </c>
       <c r="P6" t="n">
-        <v>-8142.876015184214</v>
+        <v>-8142.876015184156</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874737</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060632</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.0454828568502</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188791</v>
+        <v>911.7999282395374</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060632</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179379</v>
       </c>
       <c r="D4" t="n">
-        <v>117.7496253367459</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6819801620289</v>
+        <v>244.2847216316804</v>
       </c>
       <c r="F4" t="n">
-        <v>396.533040365866</v>
+        <v>366.4605751452079</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060634</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179379</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367461</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250069</v>
+        <v>244.2847216316802</v>
       </c>
       <c r="N4" t="n">
-        <v>396.533040365866</v>
+        <v>307.7838677081857</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060632</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179379</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367459</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.6819801620289</v>
+        <v>244.2847216316804</v>
       </c>
       <c r="N4" t="n">
-        <v>396.533040365866</v>
+        <v>366.4605751452079</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.1405214419547</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>61.72246894477649</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>23.92062369555057</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>68.8773468473953</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27619,19 +27619,19 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>86.55764165756307</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>75.43744272095718</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78.14955634298619</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>122.4480280049976</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>316.4378444551851</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,16 +27862,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>154.9299398130871</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>115.0668949392897</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060633</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850435</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060633</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060632</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509819379</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>384.410488760259</v>
+        <v>414.8144599412941</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>542.0454828568502</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>451.6762470063786</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568502</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568502</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>123.42922141539</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568502</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,7 +35331,7 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>301.6331376786493</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188791</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188791</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.727463018879</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>846.1021109777125</v>
+        <v>768.3717310533771</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>911.7999282395374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>295.720258889553</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35823,7 +35823,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,10 +35899,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>288.735183296506</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463116</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36677,7 +36677,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36914,7 +36914,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,16 +37306,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>81.9345526149732</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>92.06596429261231</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>379.5169886652536</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,10 +37874,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>30.75170697498379</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.0908366609701</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>379.5169886652536</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38178,22 +38178,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467892</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
